--- a/output1.xlsx
+++ b/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,280 +436,268 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>out1</t>
+          <t>SourceFile</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>out2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>out3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>out4</t>
+          <t>a3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>哈哈</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SourceFile</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>呵呵</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>哦哦</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>file4.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>a11</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>a12</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a15</t>
+          <t>a13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>file1.xlsx</t>
-        </is>
-      </c>
+          <t>a15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>file4.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>a11</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>a12</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>a15</t>
+          <t>a13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>file1.xlsx</t>
-        </is>
-      </c>
+          <t>a15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>file4.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>a21</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>a22</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>a25</t>
+          <t>a23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>file1.xlsx</t>
-        </is>
-      </c>
+          <t>a25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>file5.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>b11</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>b12</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>b13</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>b14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>b15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>file5.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>b21</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>b22</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>b23</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>b24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>b25</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>file5.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>b16</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>b17</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>b18</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>b19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>b20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>file5.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>b26</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>b27</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>b28</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>b29</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>file2.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>c11</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>c12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>c13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>c14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>c15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>file3.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>c21</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>c22</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>c23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>c24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>c25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>file3.xlsx</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>b30</t>
         </is>
       </c>
     </row>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SourceFile</t>
+          <t>SourceFile_Sheet</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>file4.xlsx</t>
+          <t>file4.xlsx_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>file4.xlsx</t>
+          <t>file4.xlsx_0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,7 +538,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>file4.xlsx</t>
+          <t>file4.xlsx_0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>file5.xlsx</t>
+          <t>file5.xlsx_Sheet1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -602,7 +602,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>file5.xlsx</t>
+          <t>file5.xlsx_Sheet1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>file5.xlsx</t>
+          <t>file5.xlsx_Sheet2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>file5.xlsx</t>
+          <t>file5.xlsx_Sheet2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
